--- a/results/diff_test_results.xlsx
+++ b/results/diff_test_results.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,7 +443,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>onnx_inputs</t>
+          <t>Inputs</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -498,22 +498,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[0.6142643993822957, 0.5131630610637103]</t>
+          <t>[0.32218558717255363, 0.9423029002135975]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[0.6142644286155701, 0.8725725412368774]</t>
+          <t>[0.32218557596206665, 0.37988269329071045]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[0.6142644286155701, 0.8725725412368774]</t>
+          <t>[0.32218557596206665, 0.37988269329071045]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[0.614264, 0.872573]</t>
+          <t>[0.322186, 0.379883]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -523,12 +523,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[4.2861557003615047e-07, 4.587631226016242e-07]</t>
+          <t>[4.24037933322019e-07, 3.067092895769896e-07]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[4.2861557003615047e-07, 4.587631226016242e-07]</t>
+          <t>[4.24037933322019e-07, 3.067092895769896e-07]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -553,22 +553,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[0.8583900879926477, 0.5685766860805374]</t>
+          <t>[0.13327778981579674, 0.28797498569888724]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[0.8583900928497314, 0.5730332136154175]</t>
+          <t>[0.1332777738571167, 0.4212527871131897]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[0.8583900928497314, 0.5730332136154175]</t>
+          <t>[0.1332777738571167, 0.4212527871131897]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[0.85839, 0.573033]</t>
+          <t>[0.133278, 0.421253]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -578,12 +578,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[9.284973145895492e-08, 2.1361541746589552e-07]</t>
+          <t>[2.2614288330835564e-07, 2.1288681029130174e-07]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>[9.284973145895492e-08, 2.1361541746589552e-07]</t>
+          <t>[2.2614288330835564e-07, 2.1288681029130174e-07]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -597,6 +597,2646 @@
         </is>
       </c>
       <c r="K3" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>[0.1894881974916789, 0.0711954878352945]</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[0.18948817253112793, 0.26068368554115295]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>[0.18948817253112793, 0.26068368554115295]</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>[0.189488, 0.260684]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>[1.725311279399122e-07, 3.144588470727072e-07]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[1.725311279399122e-07, 3.144588470727072e-07]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>[0.33526730505793534, 0.4068152732012844]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[0.3352673053741455, 0.7420825958251953]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>[0.3352673053741455, 0.7420825958251953]</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>[0.335267, 0.742083]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>[3.053741455261161e-07, 4.041748047356464e-07]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[3.053741455261161e-07, 4.041748047356464e-07]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>[0.5817067449715083, 0.601607513135188]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[0.5817067623138428, 0.8166857957839966]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>[0.5817067623138428, 0.8166857957839966]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>[0.581707, 0.816686]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>[2.376861572006561e-07, 2.0421600344100455e-07]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[2.376861572006561e-07, 2.0421600344100455e-07]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>[0.3449439877064804, 0.41609386733626075]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[0.3449440002441406, 0.7610378265380859]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>[0.3449440002441406, 0.7610378265380859]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>[0.344944, 0.761038]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>[2.441406521391798e-10, 1.734619140547622e-07]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[2.441406521391798e-10, 1.734619140547622e-07]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>[0.26819180447344937, 0.9236175727493962]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[0.2681918144226074, 0.3445742130279541]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>[0.2681918144226074, 0.3445742130279541]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>[0.268192, 0.344574]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>[1.8557739256408468e-07, 2.1302795411015651e-07]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[1.8557739256408468e-07, 2.1302795411015651e-07]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>[0.03734410926546383, 0.6742839711653744]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[0.03734409809112549, 0.3630601167678833]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>[0.03734409809112549, 0.3630601167678833]</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>[0.037344, 0.36306]</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>[9.809112548608834e-08, 1.1676788330694521e-07]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[9.809112548608834e-08, 1.1676788330694521e-07]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>[0.3831659953613622, 0.6432850492392582]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[0.38316595554351807, 0.7398809194564819]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>[0.38316595554351807, 0.7398809194564819]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>[0.383166, 0.739881]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>[4.445648194018048e-08, 8.054351807729176e-08]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[4.445648194018048e-08, 8.054351807729176e-08]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>[0.7568453817130432, 0.1353553912288612]</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[0.7568453550338745, 0.378510057926178]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>[0.7568453550338745, 0.378510057926178]</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>[0.756845, 0.37851]</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>[3.550338745217374e-07, 5.792617796540611e-08]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[3.550338745217374e-07, 5.792617796540611e-08]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>[0.08032462042517408, 0.9369882555138038]</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>[0.08032464981079102, 0.14333641529083252]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>[0.08032464981079102, 0.14333641529083252]</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>[0.080325, 0.143336]</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>[3.501892089780023e-07, 4.1529083252833665e-07]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[3.501892089780023e-07, 4.1529083252833665e-07]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>[0.9228010577048197, 0.40163546600195354]</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[0.9228010773658752, 0.4788343906402588]</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>[0.9228010773658752, 0.4788343906402588]</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>[0.922801, 0.478834]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>[7.736587526174787e-08, 3.9064025880719555e-07]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[7.736587526174787e-08, 3.9064025880719555e-07]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>[0.42265227531374117, 0.9902732819089992]</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>[0.4226522445678711, 0.43237900733947754]</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>[0.4226522445678711, 0.43237900733947754]</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>[0.422652, 0.432379]</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>[2.4456787106608147e-07, 7.339477525736271e-09]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[2.4456787106608147e-07, 7.339477525736271e-09]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>[0.0943701780713957, 0.7250801447156436]</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[0.09437018632888794, 0.3692900538444519]</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>[0.09437018632888794, 0.3692900538444519]</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>[0.09437, 0.36929]</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>[1.8632888794389846e-07, 5.384445189715592e-08]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[1.8632888794389846e-07, 5.384445189715592e-08]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>[0.4112067118048134, 0.6794210735055626]</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>[0.4112067222595215, 0.7317856550216675]</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>[0.4112067222595215, 0.7317856550216675]</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>[0.411207, 0.731786]</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>[2.7774047850481764e-07, 3.4497833256708077e-07]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[2.7774047850481764e-07, 3.4497833256708077e-07]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>[0.5922571246368632, 0.4315049450256234]</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>[0.5922571420669556, 0.8392478227615356]</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>[0.5922571420669556, 0.8392478227615356]</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>[0.592257, 0.839248]</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>[1.4206695553298232e-07, 1.7723846434947177e-07]</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>[1.4206695553298232e-07, 1.7723846434947177e-07]</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>[0.8973918897446039, 0.3087357516729926]</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>[0.8973919153213501, 0.4113438129425049]</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>[0.8973919153213501, 0.4113438129425049]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>[0.897392, 0.411344]</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>[8.467864986982931e-08, 1.8705749510461445e-07]</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>[8.467864986982931e-08, 1.8705749510461445e-07]</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>[0.888415888396863, 0.7079272836384042]</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>[0.8884158730506897, 0.40365684032440186]</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>[0.8884158730506897, 0.40365684032440186]</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>[0.888416, 0.403657]</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>[1.2694931028622847e-07, 1.5967559813256926e-07]</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>[1.2694931028622847e-07, 1.5967559813256926e-07]</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>[0.9376506645303112, 0.9846546154664161]</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>[0.9376506805419922, 0.07769477367401123]</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>[0.9376506805419922, 0.07769477367401123]</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>[0.937651, 0.077695]</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>[3.1945800782473555e-07, 2.2632598876970444e-07]</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>[3.1945800782473555e-07, 2.2632598876970444e-07]</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>[0.1482508059367672, 0.6376799005849904]</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>[0.14825081825256348, 0.5105709433555603]</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>[0.14825081825256348, 0.5105709433555603]</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>[0.148251, 0.510571]</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>[1.8174743651733216e-07, 5.6644439694331084e-08]</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>[1.8174743651733216e-07, 5.6644439694331084e-08]</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>[0.40166883476608095, 0.8076439489418545]</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>[0.40166884660720825, 0.5940248966217041]</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>[0.40166884660720825, 0.5940248966217041]</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>[0.401669, 0.594025]</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>[1.533927917463096e-07, 1.0337829592366177e-07]</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>[1.533927917463096e-07, 1.0337829592366177e-07]</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>[0.40393109445492115, 0.22953689117992448]</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>[0.4039310812950134, 0.633467972278595]</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>[0.4039310812950134, 0.633467972278595]</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>[0.403931, 0.633468]</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>[8.129501344322776e-08, 2.7721405060354698e-08]</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>[8.129501344322776e-08, 2.7721405060354698e-08]</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>[0.01333660988258778, 0.9594497351792975]</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>[0.013336598873138428, 0.05388689041137695]</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>[0.013336598873138428, 0.05388689041137695]</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>[0.013337, 0.053887]</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>[4.011268615721625e-07, 1.0958862304427663e-07]</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>[4.011268615721625e-07, 1.0958862304427663e-07]</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>[0.7675795869377245, 0.5636820782942522]</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>[0.7675796151161194, 0.6687382459640503]</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>[0.7675796151161194, 0.6687382459640503]</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>[0.76758, 0.668738]</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>[3.8488388065527346e-07, 2.4596405023835644e-07]</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>[3.8488388065527346e-07, 2.4596405023835644e-07]</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>[0.30168073135777074, 0.7174283111870199]</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>[0.3016807436943054, 0.5842523574829102]</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>[0.3016807436943054, 0.5842523574829102]</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>[0.301681, 0.584252]</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>[2.563056945570352e-07, 3.574829101626875e-07]</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>[2.563056945570352e-07, 3.574829101626875e-07]</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>[0.8781787916731232, 0.2718710943992647]</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>[0.8781787753105164, 0.39369237422943115]</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>[0.8781787753105164, 0.39369237422943115]</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>[0.878179, 0.393692]</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>[2.246894836854807e-07, 3.7422943116594e-07]</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>[2.246894836854807e-07, 3.7422943116594e-07]</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>[0.0929139859283099, 0.2771768212688419]</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>[0.09291398525238037, 0.3700908124446869]</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>[0.09291398525238037, 0.3700908124446869]</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>[0.092914, 0.370091]</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>[1.4747619625499198e-08, 1.8755531311365203e-07]</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>[1.4747619625499198e-08, 1.8755531311365203e-07]</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>[0.7683939506143979, 0.7559863521458429]</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>[0.7683939337730408, 0.47561967372894287]</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>[0.7683939337730408, 0.47561967372894287]</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>[0.768394, 0.47562]</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>[6.62269592499598e-08, 3.2627105711613424e-07]</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>[6.62269592499598e-08, 3.2627105711613424e-07]</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>[0.019140229206514925, 0.4438298421853535]</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>[0.019140243530273438, 0.4629700779914856]</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>[0.019140243530273438, 0.4629700779914856]</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>[0.01914, 0.46297]</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>[2.435302734367373e-07, 7.799148560305724e-08]</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>[2.435302734367373e-07, 7.799148560305724e-08]</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>[0.27639681783011194, 0.09380519797235809]</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>[0.27639681100845337, 0.3702020049095154]</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>[0.27639681100845337, 0.3702020049095154]</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>[0.276397, 0.370202]</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>[1.8899154663465367e-07, 4.909515405326914e-09]</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>[1.8899154663465367e-07, 4.909515405326914e-09]</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>[0.10145034454181945, 0.7843859459336343]</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>[0.10145032405853271, 0.31706440448760986]</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>[0.10145032405853271, 0.31706440448760986]</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>[0.10145, 0.317064]</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>[3.2405853271633145e-07, 4.044876098507899e-07]</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>[3.2405853271633145e-07, 4.044876098507899e-07]</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>[0.9936642947898063, 0.09417466709996869]</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>[0.9936643242835999, 0.1005103588104248]</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>[0.9936643242835999, 0.1005103588104248]</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>[0.993664, 0.10051]</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>[3.2428359986180766e-07, 3.588104248025692e-07]</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>[3.2428359986180766e-07, 3.588104248025692e-07]</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>[0.14688571982640242, 0.42200732485278747]</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>[0.14688575267791748, 0.5688930749893188]</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>[0.14688575267791748, 0.5688930749893188]</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>[0.146886, 0.568893]</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>[2.4732208250832777e-07, 7.498931886562588e-08]</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>[2.4732208250832777e-07, 7.498931886562588e-08]</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>[0.01097827798850426, 0.4167309694510749]</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>[0.010978281497955322, 0.4277092516422272]</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>[0.010978281497955322, 0.4277092516422272]</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>[0.010978, 0.427709]</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>[2.8149795532235455e-07, 2.516422271670038e-07]</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>[2.8149795532235455e-07, 2.516422271670038e-07]</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>[0.9154679887309485, 0.6907325612420181]</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>[0.9154679775238037, 0.39379942417144775]</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>[0.9154679775238037, 0.39379942417144775]</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>[0.915468, 0.393799]</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>[2.247619623751973e-08, 4.241714477437597e-07]</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>[2.247619623751973e-08, 4.241714477437597e-07]</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>[0.6620594683675891, 0.6132684863593842]</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>[0.662059485912323, 0.7246719598770142]</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>[0.662059485912323, 0.7246719598770142]</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>[0.662059, 0.724672]</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>[4.859123230449569e-07, 4.012298582267704e-08]</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>[4.859123230449569e-07, 4.012298582267704e-08]</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>[0.6403061619580459, 0.28315109751720957]</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>[0.6403061747550964, 0.6428449153900146]</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>[0.6403061747550964, 0.6428449153900146]</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>[0.640306, 0.642845]</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>[1.7475509639375275e-07, 8.460998535131381e-08]</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>[1.7475509639375275e-07, 8.460998535131381e-08]</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>[0.13511353035896378, 0.501957277048109]</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>[0.13511353731155396, 0.6331562399864197]</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>[0.13511353731155396, 0.6331562399864197]</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>[0.135114, 0.633156]</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>[4.626884460567915e-07, 2.399864196256374e-07]</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>[4.626884460567915e-07, 2.399864196256374e-07]</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>[0.9057443538299325, 0.3126828536664692]</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>[0.9057443737983704, 0.40693843364715576]</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>[0.9057443737983704, 0.40693843364715576]</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>[0.905744, 0.406938]</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>[3.7379837036777275e-07, 4.336471557397914e-07]</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>[3.7379837036777275e-07, 4.336471557397914e-07]</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>[0.2749063923414008, 0.7380879809264875]</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>[0.2749063968658447, 0.5368183851242065]</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>[0.2749063968658447, 0.5368183851242065]</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>[0.274906, 0.536818]</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>[3.9686584474285524e-07, 3.851242065255889e-07]</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>[3.9686584474285524e-07, 3.851242065255889e-07]</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>[0.029076404881066664, 0.5122595773477098]</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>[0.02907639741897583, 0.5168167948722839]</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>[0.02907639741897583, 0.5168167948722839]</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>[0.029076, 0.516817]</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>[3.9741897582892816e-07, 2.0512771603531377e-07]</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>[3.9741897582892816e-07, 2.0512771603531377e-07]</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>[0.3758637092050717, 0.15203924363300092]</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>[0.3758636713027954, 0.5279029607772827]</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>[0.3758636713027954, 0.5279029607772827]</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>[0.375864, 0.527903]</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>[3.2869720456574214e-07, 3.922271729628335e-08]</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>[3.2869720456574214e-07, 3.922271729628335e-08]</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>[0.9350038876992766, 0.5075845887075604]</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>[0.9350038766860962, 0.5574115514755249]</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>[0.9350038766860962, 0.5574115514755249]</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>[0.935004, 0.557412]</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>[1.233139037548625e-07, 4.4852447511622984e-07]</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>[1.233139037548625e-07, 4.4852447511622984e-07]</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>[0.9771131699096411, 0.07541614847583933]</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>[0.9771131873130798, 0.09830296039581299]</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>[0.9771131873130798, 0.09830296039581299]</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>[0.977113, 0.098303]</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>[1.8731307982466916e-07, 3.9604187013209113e-08]</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>[1.8731307982466916e-07, 3.9604187013209113e-08]</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>[0.8180868054715775, 0.3871749598685381]</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>[0.8180868029594421, 0.5690881013870239]</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>[0.8180868029594421, 0.5690881013870239]</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>[0.818087, 0.569088]</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>[1.9704055786995411e-07, 1.0138702388751142e-07]</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>[1.9704055786995411e-07, 1.0138702388751142e-07]</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>[0.4739616901613657, 0.3238193629171222]</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>[0.4739617109298706, 0.7977810502052307]</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>[0.4739617109298706, 0.7977810502052307]</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>[0.473962, 0.797781]</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>[2.890701293889464e-07, 5.020523075049965e-08]</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>[2.890701293889464e-07, 5.020523075049965e-08]</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>[0.26884977607296034, 0.3139420667444206]</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>[0.26884979009628296, 0.5827918648719788]</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>[0.26884979009628296, 0.5827918648719788]</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>[0.26885, 0.582792]</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>[2.0990371701889998e-07, 1.35128021216957e-07]</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>[2.0990371701889998e-07, 1.35128021216957e-07]</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>[0.4478359776362282, 0.8464878324014362]</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>[0.4478359818458557, 0.6013481616973877]</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>[0.4478359818458557, 0.6013481616973877]</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>[0.447836, 0.601348]</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>[1.8154144298954122e-08, 1.6169738770166475e-07]</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>[1.8154144298954122e-08, 1.6169738770166475e-07]</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>[0.801547254656888, 0.5058821000968285]</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>[0.8015472292900085, 0.692570686340332]</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>[0.8015472292900085, 0.692570686340332]</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>[0.801547, 0.692571]</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>[2.2929000853544323e-07, 3.1365966801644163e-07]</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>[2.2929000853544323e-07, 3.1365966801644163e-07]</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>[0.30295083228969144, 0.7649861459786759]</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>[0.3029508590698242, 0.5379647016525269]</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>[0.3029508590698242, 0.5379647016525269]</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>[0.302951, 0.537965]</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>[1.4093017580707468e-07, 2.983474731710345e-07]</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>[1.4093017580707468e-07, 2.983474731710345e-07]</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -613,7 +3253,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -629,7 +3269,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>onnx_inputs</t>
+          <t>Inputs</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -684,37 +3324,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[0.44565076288046424, 0.9471834097534562]</t>
+          <t>[0.8643538552268754, 0.20784631773322182]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[0.052816569805145264, 0.4984673261642456]</t>
+          <t>[0.13564616441726685, 0.3434925079345703]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[0.052816569805145264, 0.4984673261642456]</t>
+          <t>[0.13564619421958923, 0.3434925079345703]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[0.052817, 0.498467]</t>
+          <t>[0.135646, 0.343493]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[0.0, 0.0]</t>
+          <t>[2.9802322387695312e-08, 0.0]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[4.301948547391632e-07, 3.261642456120484e-07]</t>
+          <t>[1.6441726685689773e-07, 4.920654296802773e-07]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>[4.301948547391632e-07, 3.261642456120484e-07]</t>
+          <t>[1.9421958924459304e-07, 4.920654296802773e-07]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -739,50 +3379,2690 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[0.30671413190718066, 0.9080332344370924]</t>
+          <t>[0.17738471734269567, 0.8163537073379118]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[0.09196668863296509, 0.3986809253692627]</t>
+          <t>[0.17738473415374756, 0.36103105545043945]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[0.09196674823760986, 0.3986809253692627]</t>
+          <t>[0.17738473415374756, 0.36103105545043945]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[0.091967, 0.398681]</t>
+          <t>[0.177385, 0.361031]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>[2.6584625242853654e-07, 5.545043946231232e-08]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[2.6584625242853654e-07, 5.545043946231232e-08]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>[0.3625533950396572, 0.7749752320534953]</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[0.22502470016479492, 0.5875781774520874]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>[0.2250247597694397, 0.5875781774520874]</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>[0.225025, 0.587578]</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>[5.960464477539063e-08, 0.0]</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>[3.113670349053077e-07, 7.463073731228675e-08]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>[2.517623901299171e-07, 7.463073731228675e-08]</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>[2.9983520508092276e-07, 1.774520873576435e-07]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[2.4023056030553214e-07, 1.774520873576435e-07]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>[0.8493936847769129, 0.24541412683387442]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[0.15060639381408691, 0.39602041244506836]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>[0.15060634911060333, 0.39602041244506836]</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>[0.150606, 0.39602]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>[4.470348358154297e-08, 0.0]</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>[3.938140869241824e-07, 4.124450683762326e-07]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[3.4911060334263944e-07, 4.124450683762326e-07]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>[0.2905744988451944, 0.23152007284142517]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[0.23152005672454834, 0.5220945477485657]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>[0.23152007162570953, 0.5220945477485657]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>[0.23152, 0.522095]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>[1.4901161193847656e-08, 0.0]</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>[5.672454833627327e-08, 4.5225143430194237e-07]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[7.162570953012093e-08, 4.5225143430194237e-07]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>[0.8187560128880887, 0.7073043627329779]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[0.18124401569366455, 0.4739396572113037]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>[0.18124401569366455, 0.4739396572113037]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>[0.181244, 0.47394]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>[1.56936645623329e-08, 3.427886962614757e-07]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[1.56936645623329e-08, 3.427886962614757e-07]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>[0.19588041777708554, 0.03799410719322782]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[0.03799408674240112, 0.23387451469898224]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>[0.03799410164356232, 0.23387451469898224]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>[0.037994, 0.233875]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>[1.4901161193847656e-08, 0.0]</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>[8.67424011230522e-08, 4.853010177607864e-07]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[1.0164356231689986e-07, 4.853010177607864e-07]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>[0.18555658271828157, 0.20824804655043228]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[0.1855565905570984, 0.3938046097755432]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>[0.1855565905570984, 0.3938046097755432]</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>[0.185557, 0.393805]</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>[4.094429016110457e-07, 3.9022445680325646e-07]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[4.094429016110457e-07, 3.9022445680325646e-07]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>[0.18064628177688502, 0.3680475602284865]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[0.18064630031585693, 0.548693835735321]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>[0.18064630031585693, 0.548693835735321]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>[0.180646, 0.548694]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>[3.003158569325759e-07, 1.6426467897012742e-07]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[3.003158569325759e-07, 1.6426467897012742e-07]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>[0.8399923555766292, 0.6354919382478246]</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[0.16000759601593018, 0.5245157480239868]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>[0.16000765562057495, 0.5245157480239868]</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>[0.160008, 0.524516]</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>[5.960464477539063e-08, 0.0]</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>[4.0398406983555013e-07, 2.519760131658444e-07]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[3.443794250601595e-07, 2.519760131658444e-07]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>[0.4954115744991229, 0.8040116344710148]</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>[0.19598835706710815, 0.6913999319076538]</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>[0.19598835706710815, 0.6913999319076538]</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>[0.195988, 0.6914]</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>[3.570671081587484e-07, 6.809234620597238e-08]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[3.570671081587484e-07, 6.809234620597238e-08]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>[0.34022132862926235, 0.9268122586997398]</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[0.07318770885467529, 0.41340911388397217]</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>[0.07318776845932007, 0.41340911388397217]</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>[0.073188, 0.413409]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>[5.960464477539063e-08, 0.0]</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>[2.911453247100848e-07, 1.1388397214151524e-07]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[2.3154067993469418e-07, 1.1388397214151524e-07]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>[0.7959457123890704, 0.029409930374743265]</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>[0.029409945011138916, 0.23346424102783203]</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>[0.029409945011138916, 0.23346424102783203]</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>[0.02941, 0.233464]</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>[5.498886108262768e-08, 2.41027832026397e-07]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[5.498886108262768e-08, 2.41027832026397e-07]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>[0.5491332866881751, 0.22213460919269445]</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[0.22213459014892578, 0.6730012893676758]</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>[0.22213459014892578, 0.6730012893676758]</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>[0.222135, 0.673001]</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>[4.098510742178707e-07, 2.893676758208841e-07]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[4.098510742178707e-07, 2.893676758208841e-07]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>[0.5029544542641908, 0.3795293741710586]</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>[0.37952935695648193, 0.8765748739242554]</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>[0.3795293867588043, 0.8765748739242554]</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>[0.379529, 0.876575]</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>[2.9802322387695312e-08, 0.0]</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>[3.5695648192834994e-07, 1.2607574462197846e-07]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[3.8675880431604526e-07, 1.2607574462197846e-07]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>[0.513586636430472, 0.07377918349917989]</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>[0.0737791657447815, 0.5601925253868103]</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>[0.0737791657447815, 0.5601925253868103]</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>[0.073779, 0.560193]</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>[1.657447814967794e-07, 4.7461318974928446e-07]</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>[1.657447814967794e-07, 4.7461318974928446e-07]</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>[0.7284265077465876, 0.5065458524035432]</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>[0.2715734839439392, 0.765027642250061]</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>[0.2715734839439392, 0.765027642250061]</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>[0.271573, 0.765028]</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>[4.839439392001488e-07, 3.577499390061689e-07]</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>[4.839439392001488e-07, 3.577499390061689e-07]</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>[0.4910852373659038, 0.40752200890403045]</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>[0.4075220227241516, 0.8986072540283203]</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>[0.4075220227241516, 0.8986072540283203]</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>[0.407522, 0.898607]</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>[2.2724151615971522e-08, 2.54028320267885e-07]</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>[2.2724151615971522e-08, 2.54028320267885e-07]</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>[0.9734767035734783, 0.5634228016549879]</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>[0.026523232460021973, 0.4631005525588989]</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>[0.026523292064666748, 0.4631005525588989]</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>[0.026523, 0.463101]</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>[5.960464477539063e-08, 0.0]</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>[2.324600219712203e-07, 4.474411010590984e-07]</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>[2.920646667466109e-07, 4.474411010590984e-07]</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>[0.21811902211517997, 0.33038296201983397]</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>[0.21811902523040771, 0.5485019683837891]</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>[0.21811902523040771, 0.5485019683837891]</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>[0.218119, 0.548502]</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>[2.5230407707521607e-08, 3.161621098257683e-08]</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>[2.5230407707521607e-08, 3.161621098257683e-08]</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>[0.3791215284667113, 0.3621791049511518]</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>[0.36217910051345825, 0.741300642490387]</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>[0.36217910051345825, 0.741300642490387]</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>[0.362179, 0.741301]</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>[1.0051345827877256e-07, 3.575096130248312e-07]</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>[1.0051345827877256e-07, 3.575096130248312e-07]</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>[0.8560373924497278, 0.6562518462616777]</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>[0.143962562084198, 0.4877108335494995]</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>[0.14396262168884277, 0.4877108335494995]</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>[0.143963, 0.487711]</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>[5.960464477539063e-08, 0.0]</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>[4.379158020095808e-07, 1.6645050049390875e-07]</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>[3.783111572341902e-07, 1.6645050049390875e-07]</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>[0.8866947074898059, 0.6169462966410874]</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>[0.11330527067184448, 0.4963589906692505]</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>[0.11330527067184448, 0.4963589906692505]</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>[0.113305, 0.496359]</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>[2.7067184447948645e-07, 9.330749506375469e-09]</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>[2.7067184447948645e-07, 9.330749506375469e-09]</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>[0.7276137829320156, 0.11139883972045095]</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>[0.11139881610870361, 0.3837850093841553]</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>[0.11139881610870361, 0.3837850093841553]</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>[0.111399, 0.383785]</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>[1.8389129638474166e-07, 9.384155286173979e-09]</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>[1.8389129638474166e-07, 9.384155286173979e-09]</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>[0.9086839178653133, 0.19522972081591827]</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>[0.09131604433059692, 0.28654587268829346]</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>[0.0913160890340805, 0.28654587268829346]</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>[0.091316, 0.286546]</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>[4.470348358154297e-08, 0.0]</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>[4.433059692943164e-08, 1.273117065658802e-07]</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>[8.903408051097461e-08, 1.273117065658802e-07]</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>[0.5636555913973358, 0.9908628978579126]</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>[0.009137153625488281, 0.44548141956329346]</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>[0.009137094020843506, 0.44548141956329346]</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>[0.009137, 0.445481]</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>[5.960464477539063e-08, 0.0]</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>[1.53625488281961e-07, 4.1956329344117194e-07]</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>[9.402084350657036e-08, 4.1956329344117194e-07]</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>[0.4290959779726895, 0.03075537231297598]</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>[0.03075540065765381, 0.45985135436058044]</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>[0.03075537085533142, 0.45985135436058044]</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>[0.030755, 0.459851]</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>[2.9802322387695312e-08, 0.0]</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>[4.0065765380750684e-07, 3.543605804345873e-07]</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>[3.7085533141981153e-07, 3.543605804345873e-07]</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>[0.22439557898484186, 0.9964282896034422]</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>[0.0035716891288757324, 0.2279672622680664]</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>[0.0035716891288757324, 0.2279672622680664]</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>[0.003572, 0.227967]</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>[3.1087112426766636e-07, 2.622680664032817e-07]</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>[3.1087112426766636e-07, 2.622680664032817e-07]</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>[0.22625797730166197, 0.2073093651211272]</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>[0.20730936527252197, 0.4335673451423645]</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>[0.20730936527252197, 0.4335673451423645]</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>[0.207309, 0.433567]</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>[3.652725219793762e-07, 3.451423645217666e-07]</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>[3.652725219793762e-07, 3.451423645217666e-07]</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>[0.3194819532010683, 0.7292007835641731]</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>[0.27079927921295166, 0.5902811288833618]</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>[0.2707992196083069, 0.5902811288833618]</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>[0.270799, 0.590281]</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>[5.960464477539063e-08, 0.0]</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>[2.7921295164823334e-07, 1.2888336187177885e-07]</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>[2.1960830687284272e-07, 1.2888336187177885e-07]</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>[0.6160491178817008, 0.6961485361774719]</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>[0.3038514256477356, 0.6878024339675903]</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>[0.30385148525238037, 0.6878024339675903]</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>[0.303851, 0.687802]</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>[5.960464477539063e-08, 0.0]</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>[4.25647735613488e-07, 4.3396759030756016e-07]</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>[4.852523803888786e-07, 4.3396759030756016e-07]</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>[0.3683767081095316, 0.6322028155818196]</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>[0.36779725551605225, 0.7361738681793213]</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>[0.36779719591140747, 0.7361738681793213]</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>[0.367797, 0.736174]</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>[5.960464477539063e-08, 0.0]</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>[2.5551605226104e-07, 1.3182067870598502e-07]</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>[1.959114074856494e-07, 1.3182067870598502e-07]</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>[0.8817262339082202, 0.4728256236535642]</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>[0.11827385425567627, 0.5910993814468384]</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>[0.1182737946510315, 0.5910993814468384]</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>[0.118274, 0.591099]</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>[5.960464477539063e-08, 0.0]</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>[1.457443237345979e-07, 3.814468383378511e-07]</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>[2.0534896850998852e-07, 3.814468383378511e-07]</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>[0.07532085961923485, 0.8066674657368981]</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>[0.07532083988189697, 0.26865339279174805]</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>[0.07532083988189697, 0.26865339279174805]</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>[0.075321, 0.268653]</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>[1.601181030264076e-07, 3.9279174807171913e-07]</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>[1.601181030264076e-07, 3.9279174807171913e-07]</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>[0.5521928209259259, 0.6515351753983581]</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>[0.34846484661102295, 0.7962720394134521]</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>[0.34846484661102295, 0.7962720394134521]</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>[0.348465, 0.796272]</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>[1.5338897707550814e-07, 3.941345216862402e-08]</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>[1.5338897707550814e-07, 3.941345216862402e-08]</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>[0.8359960971603785, 0.8343298440096278]</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>[0.16400384902954102, 0.3296741247177124]</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>[0.1640039086341858, 0.3296741247177124]</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>[0.164004, 0.329674]</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>[5.960464477539063e-08, 0.0]</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>[1.5097045899525874e-07, 1.247177123797627e-07]</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>[9.136581421986811e-08, 1.247177123797627e-07]</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>[0.6616148334793763, 0.4145794045955239]</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>[0.33838510513305664, 0.7529646158218384]</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>[0.3383851647377014, 0.7529646158218384]</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>[0.338385, 0.752965]</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>[5.960464477539063e-08, 0.0]</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>[1.0513305664927586e-07, 3.8417816161651075e-07]</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>[1.6473770142466648e-07, 3.8417816161651075e-07]</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>[0.6658695355626806, 0.7271170477019977]</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>[0.27288299798965454, 0.6070133447647095]</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>[0.27288293838500977, 0.6070133447647095]</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>[0.272883, 0.607013]</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>[5.960464477539063e-08, 0.0]</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>[2.010345445668804e-09, 3.4476470944788673e-07]</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>[6.161499022105943e-08, 3.4476470944788673e-07]</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>[0.27724308992883206, 0.7540202452367398]</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>[0.24597972631454468, 0.523222804069519]</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>[0.24597972631454468, 0.523222804069519]</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>[0.24598, 0.523223]</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>[2.736854553264667e-07, 1.95930480950679e-07]</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>[2.736854553264667e-07, 1.95930480950679e-07]</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>[0.4200832870841046, 0.3543167729095501]</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>[0.354316771030426, 0.7744000554084778]</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>[0.354316771030426, 0.7744000554084778]</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>[0.354317, 0.7744]</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>[2.2896957396767448e-07, 5.540847780594049e-08]</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>[2.2896957396767448e-07, 5.540847780594049e-08]</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>[0.8559490295329758, 0.6818507999800097]</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>[0.1440509557723999, 0.4622001647949219]</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>[0.1440509557723999, 0.4622001647949219]</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>[0.144051, 0.4622]</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>[4.422760011002502e-08, 1.6479492187526645e-07]</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>[4.422760011002502e-08, 1.6479492187526645e-07]</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>[0.022408327757470592, 0.5555111266040339]</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>[0.02240830659866333, 0.466897189617157]</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>[0.02240830659866333, 0.466897189617157]</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>[0.022408, 0.466897]</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>[3.065986633292439e-07, 1.8961715697596304e-07]</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>[3.065986633292439e-07, 1.8961715697596304e-07]</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>[0.509600412136036, 0.07679948243319235]</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>[0.07679951190948486, 0.5671991109848022]</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>[0.07679948210716248, 0.5671991109848022]</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>[0.0768, 0.567199]</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>[2.9802322387695312e-08, 0.0]</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>[4.880905151299908e-07, 1.1098480223736829e-07]</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>[5.178928375176861e-07, 1.1098480223736829e-07]</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>[0.4207519612196423, 0.5233868532901128]</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>[0.4207519292831421, 0.8973650932312012]</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>[0.4207519292831421, 0.8973650932312012]</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>[0.420752, 0.897365]</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>[7.071685792503501e-08, 9.323120120363626e-08]</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>[7.071685792503501e-08, 9.323120120363626e-08]</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>[0.33657870760318565, 0.06555916058273437]</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>[0.06555920839309692, 0.4021378755569458]</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>[0.06555920839309692, 0.4021378755569458]</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>[0.065559, 0.402138]</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>[2.083930969176695e-07, 1.2444305419467838e-07]</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>[2.083930969176695e-07, 1.2444305419467838e-07]</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>[0.23245279419147902, 0.4817599816509278]</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>[0.23245280981063843, 0.7142127752304077]</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>[0.23245280981063843, 0.7142127752304077]</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>[0.232453, 0.714213]</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>[1.9018936156522948e-07, 2.2476959227191173e-07]</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>[1.9018936156522948e-07, 2.2476959227191173e-07]</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>[0.9308751840946092, 0.45177065052436305]</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>[0.06912481784820557, 0.5208954811096191]</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>[0.06912481784820557, 0.5208954811096191]</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>[0.069125, 0.520895]</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>[1.8215179443947793e-07, 4.811096191437159e-07]</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>[1.8215179443947793e-07, 4.811096191437159e-07]</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>[0.8409520646270986, 0.11624462089438226]</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>[0.1162446141242981, 0.2752925753593445]</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>[0.1162446141242981, 0.2752925753593445]</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>[0.116245, 0.275293]</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>[3.8587570190540266e-07, 4.246406555274973e-07]</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>[3.8587570190540266e-07, 4.246406555274973e-07]</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>[0.29801258226958716, 0.4517852125006665]</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>[0.2980126142501831, 0.7497978210449219]</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>[0.2980126142501831, 0.7497978210449219]</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>[0.298013, 0.749798]</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>[3.8574981686689824e-07, 1.789550780895155e-07]</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>[3.8574981686689824e-07, 1.789550780895155e-07]</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>[0.26679280606121114, 0.6976847926692048]</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>[0.26679277420043945, 0.5691080093383789]</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>[0.26679277420043945, 0.5691080093383789]</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>[0.266793, 0.569108]</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>[2.2579956054924466e-07, 9.338378959000693e-09]</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>[2.2579956054924466e-07, 9.338378959000693e-09]</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
         <is>
           <t>TRUE</t>
         </is>
@@ -846,14 +6126,14 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2b2ad3f8-0887-4136-abaa-22804ad9acd4</t>
+          <t>5ceeedd2-5652-4cd9-94ab-73580787f995</t>
         </is>
       </c>
     </row>
@@ -869,14 +6149,14 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>b20cc0a3-23e6-4736-94e9-3ff7f82fd534</t>
+          <t>40a03a8e-e94c-4dc8-b3d3-29fb66d6d512</t>
         </is>
       </c>
     </row>
